--- a/Projects/CCBZA/Data/Template_QSR_January.xlsx
+++ b/Projects/CCBZA/Data/Template_QSR_January.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,13 +18,15 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="d" vbProcedure="false">Availability!$A$1:$S$10</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="ng" vbProcedure="false">Availability!$A$1:$S$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$10</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$20</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0_0_0" vbProcedure="false">Availability!$A$1:$S$10</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Availability!$A$1:$S$10</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">Availability!$A$1:$S$20</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Availability!$A$1:$S$10</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Availability!$A$1:$S$20</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Availability!$A$1:$S$10</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="לויעמ" vbProcedure="false">Availability!$A$1:$S$10</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -378,7 +380,7 @@
     <t xml:space="preserve">5449000256928, 5449000257451 | 5449000664693, 5449000664716, 5449000664709, 5449000664785, 5449000664792, 5449000664761</t>
   </si>
   <si>
-    <t xml:space="preserve">SSD IC Availability of: 400ml PET (CC, SP, FA, ST) Cold </t>
+    <t xml:space="preserve">SSD IC Availability of: 400ml PET (CC, SP, FA, ST) Cold</t>
   </si>
   <si>
     <t xml:space="preserve">5449000664686, 5449000234643, 5449000664723 | 5449000664754 | 5449000664747, 5449000664808</t>
@@ -393,7 +395,7 @@
     <t xml:space="preserve">SSD IC Diets Availab of: Min 3 SSD 400 PET/300ml Can(CZ,Coke Life,Coke Light,Tab,SpZ,StZ,FZ)</t>
   </si>
   <si>
-    <t xml:space="preserve">5449000256898, 5449000256973, 5449000256867, 5449000257352, 5449000257178, 5449000664716, 5449000664709, 5449000664693, 5449000664761, 5449000664785, 5449000664792</t>
+    <t xml:space="preserve">5449000256898, 5449000256973, 5449000256867, 5449000257352, 5449000257178 | 5449000664716, 5449000664709, 5449000664693, 5449000664761, 5449000664785, 5449000664792</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum 4 unique SKUs with 2 facing</t>
@@ -796,26 +798,26 @@
   </sheetPr>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3209302325581"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6279069767442"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7209302325581"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9348837209302"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.35348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.01395348837209"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.553488372093"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5162790697674"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.7209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3209302325581"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.093023255814"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.38604651162791"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.153488372093"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,7 +846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -880,7 +882,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1102,7 +1104,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1139,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1174,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1209,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1262,19 +1264,20 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.2604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.3488372093023"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4883720930233"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.1627906976744"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.84651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.1813953488372"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="71.1302325581395"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.9209302325581"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="77.6511627906977"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,27 +1352,27 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4604651162791"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.62790697674419"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.26046511627907"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.62790697674419"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="5.29302325581395"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.4279069767442"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,27 +1445,27 @@
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M65536"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.7255813953488"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2279069767442"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.2744186046512"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.64651162790698"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.506976744186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="105.711627906977"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.01395348837209"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1514,18 +1517,8 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="5" t="e">
-        <f aca="false">VLOOKUP($B2,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" s="5" t="e">
-        <f aca="false">VLOOKUP($B2,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M2" s="0" t="str">
-        <f aca="false">IF(F2="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -1550,18 +1543,8 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="5" t="e">
-        <f aca="false">VLOOKUP($B3,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L3" s="5" t="e">
-        <f aca="false">VLOOKUP($B3,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M3" s="0" t="str">
-        <f aca="false">IF(F3="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -1586,18 +1569,8 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="5" t="e">
-        <f aca="false">VLOOKUP($B4,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L4" s="5" t="e">
-        <f aca="false">VLOOKUP($B4,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M4" s="0" t="str">
-        <f aca="false">IF(F4="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -1624,18 +1597,8 @@
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="5" t="e">
-        <f aca="false">VLOOKUP($B5,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L5" s="5" t="e">
-        <f aca="false">VLOOKUP($B5,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M5" s="0" t="str">
-        <f aca="false">IF(F5="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -1662,18 +1625,8 @@
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="5" t="e">
-        <f aca="false">VLOOKUP($B6,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L6" s="5" t="e">
-        <f aca="false">VLOOKUP($B6,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M6" s="0" t="str">
-        <f aca="false">IF(F6="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
@@ -1697,18 +1650,8 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="5" t="e">
-        <f aca="false">VLOOKUP($B7,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L7" s="5" t="e">
-        <f aca="false">VLOOKUP($B7,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M7" s="0" t="str">
-        <f aca="false">IF(F7="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -1735,18 +1678,8 @@
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="5" t="e">
-        <f aca="false">VLOOKUP($B8,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L8" s="5" t="e">
-        <f aca="false">VLOOKUP($B8,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M8" s="0" t="str">
-        <f aca="false">IF(F8="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -1773,18 +1706,8 @@
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="5" t="e">
-        <f aca="false">VLOOKUP($B9,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L9" s="5" t="e">
-        <f aca="false">VLOOKUP($B9,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M9" s="0" t="str">
-        <f aca="false">IF(F9="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -1811,18 +1734,8 @@
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="5" t="e">
-        <f aca="false">VLOOKUP($B10,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L10" s="5" t="e">
-        <f aca="false">VLOOKUP($B10,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M10" s="0" t="str">
-        <f aca="false">IF(F10="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -1849,18 +1762,8 @@
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="5" t="e">
-        <f aca="false">VLOOKUP($B11,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L11" s="5" t="e">
-        <f aca="false">VLOOKUP($B11,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M11" s="0" t="str">
-        <f aca="false">IF(F11="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -1885,18 +1788,8 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="5" t="e">
-        <f aca="false">VLOOKUP($B12,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L12" s="5" t="e">
-        <f aca="false">VLOOKUP($B12,#REF!, 7, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M12" s="0" t="str">
-        <f aca="false">IF(F12="", "", "NUMBER")</f>
-        <v/>
-      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
@@ -1923,14 +1816,7 @@
       <c r="H13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="5" t="e">
-        <f aca="false">VLOOKUP($B13,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" s="0" t="str">
-        <f aca="false">IF(F13="", "", "NUMBER")</f>
-        <v>NUMBER</v>
-      </c>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
@@ -1957,14 +1843,7 @@
       <c r="H14" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="5" t="e">
-        <f aca="false">VLOOKUP($B14,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M14" s="0" t="str">
-        <f aca="false">IF(F14="", "", "NUMBER")</f>
-        <v>NUMBER</v>
-      </c>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
@@ -1991,14 +1870,7 @@
       <c r="H15" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="5" t="e">
-        <f aca="false">VLOOKUP($B15,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M15" s="0" t="str">
-        <f aca="false">IF(F15="", "", "NUMBER")</f>
-        <v>NUMBER</v>
-      </c>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
@@ -2025,14 +1897,7 @@
       <c r="H16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="5" t="e">
-        <f aca="false">VLOOKUP($B16,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M16" s="0" t="str">
-        <f aca="false">IF(F16="", "", "NUMBER")</f>
-        <v>NUMBER</v>
-      </c>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
@@ -2059,14 +1924,7 @@
       <c r="H17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="5" t="e">
-        <f aca="false">VLOOKUP($B17,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="0" t="str">
-        <f aca="false">IF(F17="", "", "NUMBER")</f>
-        <v>NUMBER</v>
-      </c>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
@@ -2093,14 +1951,7 @@
       <c r="H18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K18" s="5" t="e">
-        <f aca="false">VLOOKUP($B18,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M18" s="0" t="str">
-        <f aca="false">IF(F18="", "", "NUMBER")</f>
-        <v>NUMBER</v>
-      </c>
+      <c r="K18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
@@ -2127,14 +1978,7 @@
       <c r="H19" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="5" t="e">
-        <f aca="false">VLOOKUP($B19,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M19" s="0" t="str">
-        <f aca="false">IF(F19="", "", "NUMBER")</f>
-        <v>NUMBER</v>
-      </c>
+      <c r="K19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
@@ -2161,18 +2005,8 @@
       <c r="H20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="5" t="e">
-        <f aca="false">VLOOKUP($B20,#REF!, 1, 0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M20" s="0" t="str">
-        <f aca="false">IF(F20="", "", "NUMBER")</f>
-        <v>NUMBER</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="K20" s="5"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2192,35 +2026,36 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5348837209302"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.1860465116279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3953488372093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.96744186046512"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="90.3255813953488"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.49302325581395"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.84651162790698"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.906976744186"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="15.3813953488372"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="13.7813953488372"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.9209302325581"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="39.6279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.646511627907"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="108.418604651163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.8418604651163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.706976744186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.9813953488372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="14" width="98.6976744186046"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.2"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.2139534883721"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="16.6139534883721"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="43.1953488372093"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="4.06046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -2871,7 +2706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
         <v>18</v>
       </c>
@@ -2913,7 +2748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
         <v>20</v>
       </c>
@@ -2958,7 +2793,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
         <v>18</v>
       </c>
@@ -3000,7 +2835,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="42.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
@@ -3042,7 +2877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="13" t="s">
         <v>20</v>
       </c>
@@ -3091,7 +2926,7 @@
   <autoFilter ref="A1:S20"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3108,34 +2943,34 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U1" activeCellId="0" sqref="U1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2744186046512"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.8372093023256"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="1.84651162790698"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.2558139534884"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="27.8139534883721"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.4279069767442"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="31.1348837209302"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.8139534883721"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="33.4744186046512"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.4139534883721"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1209302325581"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.2558139534884"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.84651162790698"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.7674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="33.9674418604651"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.2744186046512"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.5488372093023"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="23.2604651162791"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="17" min="16" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3194,7 +3029,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -3247,7 +3082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
         <v>14</v>
       </c>
@@ -3312,21 +3147,21 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I20" activeCellId="0" sqref="I20"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8279069767442"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.26046511627907"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.13953488372093"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.8139534883721"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5813953488372"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.47441860465116"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.4604651162791"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9348837209302"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.62790697674419"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.50697674418605"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="12.6744186046512"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.86046511627907"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="9.84651162790698"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
